--- a/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
+++ b/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niit\Sept-2020---Jan-2021\Grade 2018\ProjectAssignmentProgress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BA645E-4118-4658-A625-5F8E9EC4111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3829266-E596-49E8-9CE0-ABB05BB97043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="508">
   <si>
     <t xml:space="preserve">Modular Project/ISAS Allocation/Evaluation </t>
   </si>
@@ -1548,6 +1548,58 @@
   </si>
   <si>
     <t>万军</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表创建</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Functionality</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分老师学生登录</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、注册页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表创建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册页面</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分管理员与消费者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分医生与患者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分老师与学生</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1555,7 +1607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,6 +1708,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1933,7 +1992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2006,6 +2065,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,18 +2098,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2048,18 +2120,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,11 +2129,20 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,6 +2162,18 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2108,23 +2189,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2140,6 +2209,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2159,20 +2234,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2536,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="F1" zoomScale="88" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2576,39 +2638,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" s="25"/>
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
@@ -2640,90 +2702,90 @@
       <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="35" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="35"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
     </row>
     <row r="4" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2731,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>15</v>
@@ -2796,7 +2858,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="35"/>
+      <c r="AE4" s="40"/>
     </row>
     <row r="5" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -2841,7 +2903,7 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="35"/>
+      <c r="AE5" s="40"/>
     </row>
     <row r="6" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
@@ -2856,20 +2918,36 @@
       <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="G6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2901,16 +2979,32 @@
       <c r="D7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N7" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -2942,16 +3036,32 @@
       <c r="D8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M8" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N8" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -2983,16 +3093,32 @@
       <c r="D9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M9" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N9" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -3024,20 +3150,36 @@
       <c r="D10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="G10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N10" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -3069,16 +3211,32 @@
       <c r="D11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N11" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -3110,16 +3268,32 @@
       <c r="D12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M12" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N12" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -3151,16 +3325,32 @@
       <c r="D13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -3192,20 +3382,36 @@
       <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="G14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N14" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -3237,16 +3443,32 @@
       <c r="D15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N15" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -3278,16 +3500,32 @@
       <c r="D16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N16" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -3319,16 +3557,32 @@
       <c r="D17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N17" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -3360,20 +3614,36 @@
       <c r="D18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="G18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N18" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -3405,16 +3675,32 @@
       <c r="D19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N19" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -3446,16 +3732,32 @@
       <c r="D20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N20" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -3487,16 +3789,32 @@
       <c r="D21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N21" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -3522,26 +3840,42 @@
       <c r="B22" s="24">
         <v>12018246098</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="28" t="s">
         <v>480</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="G22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L22" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N22" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -3573,16 +3907,32 @@
       <c r="D23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L23" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N23" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -3614,16 +3964,32 @@
       <c r="D24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -3655,16 +4021,32 @@
       <c r="D25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L25" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N25" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -3696,20 +4078,36 @@
       <c r="D26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="G26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L26" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N26" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -3741,16 +4139,32 @@
       <c r="D27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L27" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N27" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -3782,16 +4196,32 @@
       <c r="D28" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N28" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -3823,16 +4253,32 @@
       <c r="D29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N29" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -3864,20 +4310,36 @@
       <c r="D30" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="G30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N30" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -3909,16 +4371,32 @@
       <c r="D31" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L31" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M31" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N31" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -3950,16 +4428,32 @@
       <c r="D32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L32" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M32" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N32" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -3991,16 +4485,32 @@
       <c r="D33" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N33" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -4032,20 +4542,36 @@
       <c r="D34" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="G34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M34" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N34" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -4077,16 +4603,32 @@
       <c r="D35" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M35" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N35" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -4118,16 +4660,32 @@
       <c r="D36" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L36" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M36" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N36" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -4159,16 +4717,32 @@
       <c r="D37" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L37" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M37" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N37" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -4200,20 +4774,36 @@
       <c r="D38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="F38" s="30" t="s">
         <v>472</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="G38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L38" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N38" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -4245,16 +4835,32 @@
       <c r="D39" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L39" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N39" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -4286,16 +4892,32 @@
       <c r="D40" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L40" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N40" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -4327,16 +4949,32 @@
       <c r="D41" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L41" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N41" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -4368,20 +5006,36 @@
       <c r="D42" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="79" t="s">
+      <c r="E42" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="G42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L42" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M42" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N42" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -4413,16 +5067,32 @@
       <c r="D43" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M43" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N43" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -4454,16 +5124,32 @@
       <c r="D44" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L44" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M44" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N44" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -4495,16 +5181,32 @@
       <c r="D45" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H45" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I45" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J45" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L45" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M45" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N45" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
@@ -4536,20 +5238,36 @@
       <c r="D46" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="79" t="s">
+      <c r="E46" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="G46" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I46" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J46" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L46" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M46" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N46" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
@@ -4581,16 +5299,32 @@
       <c r="D47" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I47" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J47" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L47" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M47" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N47" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
@@ -4609,7 +5343,7 @@
       <c r="AD47" s="6"/>
       <c r="AE47" s="26"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>43</v>
       </c>
@@ -4622,16 +5356,32 @@
       <c r="D48" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H48" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I48" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J48" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L48" s="85" t="s">
+        <v>502</v>
+      </c>
+      <c r="M48" s="85" t="s">
+        <v>501</v>
+      </c>
+      <c r="N48" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -4651,7 +5401,7 @@
       <c r="AE48" s="26"/>
     </row>
     <row r="50" spans="1:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="28" t="s">
         <v>473</v>
       </c>
       <c r="B50" s="24">
@@ -4663,7 +5413,7 @@
       <c r="D50" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="80" t="s">
+      <c r="E50" s="28" t="s">
         <v>474</v>
       </c>
       <c r="G50" s="6"/>
@@ -4694,6 +5444,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F13"/>
@@ -4710,27 +5476,11 @@
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="A3:F4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4738,8 +5488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4778,39 +5528,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
     </row>
     <row r="2" spans="1:31" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4823,82 +5573,82 @@
       <c r="F2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="49" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="49"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="54"/>
     </row>
     <row r="4" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4991,7 +5741,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="49"/>
+      <c r="AE4" s="54"/>
     </row>
     <row r="5" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -5006,20 +5756,36 @@
       <c r="D5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="G5" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K5" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L5" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M5" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N5" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -5051,16 +5817,32 @@
       <c r="D6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -5092,16 +5874,32 @@
       <c r="D7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N7" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -5133,16 +5931,32 @@
       <c r="D8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K8" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L8" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M8" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N8" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -5168,26 +5982,42 @@
       <c r="B9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="29" t="s">
         <v>496</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="G9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K9" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M9" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N9" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -5219,16 +6049,32 @@
       <c r="D10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N10" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -5260,16 +6106,32 @@
       <c r="D11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N11" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -5301,16 +6163,32 @@
       <c r="D12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N12" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -5342,20 +6220,36 @@
       <c r="D13" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="G13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K13" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L13" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M13" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -5387,16 +6281,32 @@
       <c r="D14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L14" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M14" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N14" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -5428,16 +6338,32 @@
       <c r="D15" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M15" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N15" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -5463,22 +6389,38 @@
       <c r="B16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="29" t="s">
         <v>495</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M16" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N16" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -5510,20 +6452,36 @@
       <c r="D17" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="G17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M17" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N17" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -5555,16 +6513,32 @@
       <c r="D18" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K18" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M18" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N18" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -5596,16 +6570,32 @@
       <c r="D19" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M19" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N19" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -5631,22 +6621,38 @@
       <c r="B20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="29" t="s">
         <v>494</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K20" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M20" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N20" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -5678,20 +6684,36 @@
       <c r="D21" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="G21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K21" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M21" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N21" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -5723,16 +6745,32 @@
       <c r="D22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K22" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M22" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N22" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -5758,22 +6796,38 @@
       <c r="B23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="29" t="s">
         <v>491</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K23" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M23" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N23" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -5805,16 +6859,32 @@
       <c r="D24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K24" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N24" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -5846,20 +6916,36 @@
       <c r="D25" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="G25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K25" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L25" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M25" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N25" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -5891,16 +6977,32 @@
       <c r="D26" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K26" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L26" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M26" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N26" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -5926,22 +7028,38 @@
       <c r="B27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="29" t="s">
         <v>492</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K27" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L27" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M27" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N27" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -5967,22 +7085,38 @@
       <c r="B28" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="29" t="s">
         <v>493</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K28" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M28" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="N28" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -6014,20 +7148,36 @@
       <c r="D29" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="G29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K29" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M29" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N29" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -6053,22 +7203,38 @@
       <c r="B30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="29" t="s">
         <v>489</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K30" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M30" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N30" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -6094,22 +7260,38 @@
       <c r="B31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="29" t="s">
         <v>490</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J31" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K31" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L31" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M31" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N31" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -6141,16 +7323,32 @@
       <c r="D32" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J32" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L32" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M32" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N32" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -6182,20 +7380,36 @@
       <c r="D33" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="G33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K33" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M33" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="N33" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -6227,16 +7441,32 @@
       <c r="D34" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M34" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="N34" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
@@ -6268,16 +7498,32 @@
       <c r="D35" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J35" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K35" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L35" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M35" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="N35" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
@@ -6309,16 +7555,32 @@
       <c r="D36" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J36" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K36" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L36" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M36" s="85" t="s">
+        <v>506</v>
+      </c>
+      <c r="N36" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
@@ -6350,20 +7612,36 @@
       <c r="D37" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="G37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J37" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K37" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L37" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M37" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N37" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -6395,16 +7673,32 @@
       <c r="D38" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J38" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K38" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L38" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M38" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N38" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -6430,22 +7724,38 @@
       <c r="B39" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="29" t="s">
         <v>487</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J39" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K39" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L39" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M39" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N39" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -6477,16 +7787,32 @@
       <c r="D40" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J40" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K40" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L40" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M40" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N40" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
@@ -6518,20 +7844,36 @@
       <c r="D41" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="50" t="s">
         <v>486</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="G41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K41" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L41" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M41" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N41" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -6563,16 +7905,32 @@
       <c r="D42" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J42" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K42" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L42" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M42" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N42" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -6604,16 +7962,32 @@
       <c r="D43" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J43" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K43" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M43" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N43" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
@@ -6639,22 +8013,38 @@
       <c r="B44" s="7">
         <v>12017245796</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="29" t="s">
         <v>486</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="H44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="I44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>499</v>
+      </c>
+      <c r="K44" s="85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L44" s="85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M44" s="85" t="s">
+        <v>505</v>
+      </c>
+      <c r="N44" s="85" t="s">
+        <v>499</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
@@ -6675,26 +8065,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E24"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="G2:AD2"/>
     <mergeCell ref="B3:E3"/>
@@ -6705,6 +8075,26 @@
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F44"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6756,39 +8146,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
     </row>
     <row r="2" spans="1:31" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6796,87 +8186,87 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="29" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="31" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="34"/>
     </row>
     <row r="4" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6969,7 +8359,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="31"/>
+      <c r="AE4" s="34"/>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -6984,10 +8374,10 @@
       <c r="D5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="55" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="6"/>
@@ -7029,8 +8419,8 @@
       <c r="D6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -7070,8 +8460,8 @@
       <c r="D7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7111,8 +8501,8 @@
       <c r="D8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -7152,8 +8542,8 @@
       <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -7193,10 +8583,10 @@
       <c r="D10" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="55" t="s">
         <v>226</v>
       </c>
       <c r="G10" s="6"/>
@@ -7238,8 +8628,8 @@
       <c r="D11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -7279,8 +8669,8 @@
       <c r="D12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -7320,8 +8710,8 @@
       <c r="D13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -7361,10 +8751,10 @@
       <c r="D14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="55" t="s">
         <v>234</v>
       </c>
       <c r="G14" s="6"/>
@@ -7406,8 +8796,8 @@
       <c r="D15" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -7447,8 +8837,8 @@
       <c r="D16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -7488,8 +8878,8 @@
       <c r="D17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -7529,8 +8919,8 @@
       <c r="D18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -7570,10 +8960,10 @@
       <c r="D19" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="55" t="s">
         <v>246</v>
       </c>
       <c r="G19" s="6"/>
@@ -7615,8 +9005,8 @@
       <c r="D20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7656,8 +9046,8 @@
       <c r="D21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -7697,8 +9087,8 @@
       <c r="D22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -7738,10 +9128,10 @@
       <c r="D23" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="55" t="s">
         <v>234</v>
       </c>
       <c r="G23" s="6"/>
@@ -7783,8 +9173,8 @@
       <c r="D24" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -7824,8 +9214,8 @@
       <c r="D25" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -7865,8 +9255,8 @@
       <c r="D26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7906,10 +9296,10 @@
       <c r="D27" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="55" t="s">
         <v>262</v>
       </c>
       <c r="G27" s="6"/>
@@ -7951,8 +9341,8 @@
       <c r="D28" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7992,8 +9382,8 @@
       <c r="D29" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -8033,8 +9423,8 @@
       <c r="D30" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -8074,10 +9464,10 @@
       <c r="D31" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="55" t="s">
         <v>270</v>
       </c>
       <c r="G31" s="6"/>
@@ -8119,8 +9509,8 @@
       <c r="D32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -8160,8 +9550,8 @@
       <c r="D33" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -8201,8 +9591,8 @@
       <c r="D34" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -8242,10 +9632,10 @@
       <c r="D35" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="55" t="s">
         <v>246</v>
       </c>
       <c r="G35" s="6"/>
@@ -8287,8 +9677,8 @@
       <c r="D36" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -8328,8 +9718,8 @@
       <c r="D37" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -8369,8 +9759,8 @@
       <c r="D38" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -8410,10 +9800,10 @@
       <c r="D39" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="55" t="s">
         <v>215</v>
       </c>
       <c r="G39" s="6"/>
@@ -8455,8 +9845,8 @@
       <c r="D40" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -8496,8 +9886,8 @@
       <c r="D41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -8537,8 +9927,8 @@
       <c r="D42" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -8584,6 +9974,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="E35:E38"/>
@@ -8600,19 +10003,6 @@
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE2:AE4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8664,39 +10054,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8704,87 +10094,87 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="57" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="65" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="65"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="70"/>
     </row>
     <row r="4" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -8877,7 +10267,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="65"/>
+      <c r="AE4" s="70"/>
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -10475,6 +11865,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E34:E37"/>
@@ -10491,19 +11894,6 @@
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE2:AE4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10554,39 +11944,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
     </row>
     <row r="2" spans="1:31" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10594,95 +11984,95 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="66" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="65" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="30" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="65"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="70"/>
     </row>
     <row r="4" spans="1:31" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
@@ -10755,7 +12145,7 @@
       <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="65"/>
+      <c r="AE4" s="70"/>
     </row>
     <row r="5" spans="1:31" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -10815,8 +12205,8 @@
       <c r="D6" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -10856,8 +12246,8 @@
       <c r="D7" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -10897,8 +12287,8 @@
       <c r="D8" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10938,8 +12328,8 @@
       <c r="D9" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="70"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -10979,8 +12369,8 @@
       <c r="D10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -11020,8 +12410,8 @@
       <c r="D11" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="69"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -11061,8 +12451,8 @@
       <c r="D12" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -11102,8 +12492,8 @@
       <c r="D13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="70"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -11143,8 +12533,8 @@
       <c r="D14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="68"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -11184,8 +12574,8 @@
       <c r="D15" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="69"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -11225,8 +12615,8 @@
       <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="69"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -11266,8 +12656,8 @@
       <c r="D17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="70"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -11307,8 +12697,8 @@
       <c r="D18" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -11348,8 +12738,8 @@
       <c r="D19" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="52"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -11389,8 +12779,8 @@
       <c r="D20" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -11430,8 +12820,8 @@
       <c r="D21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="72"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -11471,8 +12861,8 @@
       <c r="D22" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -11512,8 +12902,8 @@
       <c r="D23" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="52"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -11553,8 +12943,8 @@
       <c r="D24" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -11594,8 +12984,8 @@
       <c r="D25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="72"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -11635,8 +13025,8 @@
       <c r="D26" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -11676,8 +13066,8 @@
       <c r="D27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -11717,8 +13107,8 @@
       <c r="D28" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="52"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -11758,8 +13148,8 @@
       <c r="D29" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="72"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -11799,8 +13189,8 @@
       <c r="D30" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -11840,8 +13230,8 @@
       <c r="D31" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="52"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -11881,8 +13271,8 @@
       <c r="D32" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -11922,8 +13312,8 @@
       <c r="D33" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="72"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -11963,8 +13353,8 @@
       <c r="D34" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="75"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -12004,8 +13394,8 @@
       <c r="D35" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="52"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -12045,8 +13435,8 @@
       <c r="D36" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -12086,8 +13476,8 @@
       <c r="D37" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="72"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -12127,8 +13517,8 @@
       <c r="D38" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -12168,8 +13558,8 @@
       <c r="D39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -12209,8 +13599,8 @@
       <c r="D40" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -12250,8 +13640,8 @@
       <c r="D41" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="72"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -12280,6 +13670,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:AD2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="A3:F4"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E34:E37"/>
@@ -12296,19 +13699,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:AD2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="A3:F4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
+++ b/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
@@ -1384,12 +1384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,13 +1460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1482,6 +1475,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1490,55 +1499,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,25 +1520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1591,7 +1537,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1605,21 +1604,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1694,19 +1687,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,37 +1729,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,25 +1765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,13 +1795,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,67 +1855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,9 +2167,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2208,21 +2215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2235,8 +2227,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2252,17 +2244,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2287,10 +2268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2299,142 +2280,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2633,25 +2614,25 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2681,17 +2662,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11092,8 +11073,8 @@
   <sheetPr/>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.6636363636364" defaultRowHeight="22" customHeight="1"/>
@@ -12237,7 +12218,7 @@
         <v>424</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>

--- a/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
+++ b/Grade 2018/ProjectAssignmentProgress/NIIT-Project-Progress-ZW-2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270" activeTab="4"/>
+    <workbookView windowWidth="20328" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CC1_ZW" sheetId="9" r:id="rId1"/>
@@ -1384,10 +1384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1468,23 +1468,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1499,22 +1499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1527,9 +1512,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1543,22 +1535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1567,15 +1543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1597,6 +1567,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1604,9 +1605,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1687,7 +1687,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,7 +1801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,127 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,19 +1855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,17 +2167,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2226,6 +2215,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2268,10 +2268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2280,139 +2280,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2811,8 +2811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="50445670" y="67945"/>
-          <a:ext cx="0" cy="367665"/>
+          <a:off x="49530000" y="67945"/>
+          <a:ext cx="0" cy="366395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3091,46 +3091,46 @@
   <sheetPr/>
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="33.8909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="33.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="20.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.4454545454545" customWidth="1"/>
-    <col min="14" max="14" width="20.1090909090909" customWidth="1"/>
-    <col min="15" max="15" width="14.1090909090909" customWidth="1"/>
+    <col min="13" max="13" width="17.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="20.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="17.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="20.1090909090909" customWidth="1"/>
-    <col min="19" max="19" width="14.1090909090909" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="20.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="17.4454545454545" customWidth="1"/>
-    <col min="22" max="22" width="20.1090909090909" customWidth="1"/>
-    <col min="23" max="23" width="14.1090909090909" customWidth="1"/>
+    <col min="21" max="21" width="17.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="20.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="14.1111111111111" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="17.4454545454545" customWidth="1"/>
-    <col min="26" max="26" width="20.1090909090909" customWidth="1"/>
-    <col min="27" max="27" width="14.1090909090909" customWidth="1"/>
+    <col min="25" max="25" width="17.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="20.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="17.4454545454545" customWidth="1"/>
-    <col min="30" max="30" width="20.1090909090909" customWidth="1"/>
-    <col min="31" max="31" width="60.1090909090909" style="75" customWidth="1"/>
+    <col min="29" max="29" width="17.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="20.1111111111111" customWidth="1"/>
+    <col min="31" max="31" width="60.1111111111111" style="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" spans="1:50">
+    <row r="1" ht="17.4" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="AW1" s="91"/>
       <c r="AX1" s="94"/>
     </row>
-    <row r="2" ht="21" spans="1:31">
+    <row r="2" ht="20.4" spans="1:31">
       <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.5" spans="1:31">
+    <row r="3" ht="17.4" spans="1:31">
       <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="92"/>
     </row>
-    <row r="4" ht="17.5" spans="1:31">
+    <row r="4" ht="17.4" spans="1:31">
       <c r="A4" s="79"/>
       <c r="B4" s="80"/>
       <c r="C4" s="80"/>
@@ -5294,46 +5294,46 @@
   <sheetPr/>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="53.4454545454545" customWidth="1"/>
-    <col min="7" max="7" width="14.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="53.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="20.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.4454545454545" customWidth="1"/>
-    <col min="14" max="14" width="20.1090909090909" customWidth="1"/>
-    <col min="15" max="15" width="14.1090909090909" customWidth="1"/>
+    <col min="13" max="13" width="17.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="20.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="17.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="20.1090909090909" customWidth="1"/>
-    <col min="19" max="19" width="14.1090909090909" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="20.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="17.4454545454545" customWidth="1"/>
-    <col min="22" max="22" width="20.1090909090909" customWidth="1"/>
-    <col min="23" max="23" width="14.1090909090909" customWidth="1"/>
+    <col min="21" max="21" width="17.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="20.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="14.1111111111111" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="17.4454545454545" customWidth="1"/>
-    <col min="26" max="26" width="20.1090909090909" customWidth="1"/>
-    <col min="27" max="27" width="14.1090909090909" customWidth="1"/>
+    <col min="25" max="25" width="17.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="20.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="17.4454545454545" customWidth="1"/>
-    <col min="30" max="30" width="20.1090909090909" customWidth="1"/>
+    <col min="29" max="29" width="17.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="20.1111111111111" customWidth="1"/>
     <col min="31" max="31" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" spans="1:31">
+    <row r="1" ht="17.4" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" ht="21" spans="1:31">
+    <row r="2" ht="20.4" spans="1:31">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.5" spans="1:31">
+    <row r="3" ht="17.4" spans="1:31">
       <c r="A3" s="15"/>
       <c r="B3" s="54" t="s">
         <v>5</v>
@@ -5456,7 +5456,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="73"/>
     </row>
-    <row r="4" ht="17.5" spans="1:31">
+    <row r="4" ht="17.4" spans="1:31">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="AE4" s="73"/>
     </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:31">
+    <row r="5" customHeight="1" spans="1:31">
       <c r="A5" s="44">
         <v>1</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="AD5" s="17"/>
       <c r="AE5" s="74"/>
     </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:31">
+    <row r="6" customHeight="1" spans="1:31">
       <c r="A6" s="44">
         <v>2</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="74"/>
     </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:31">
+    <row r="7" customHeight="1" spans="1:31">
       <c r="A7" s="44">
         <v>3</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="AD7" s="17"/>
       <c r="AE7" s="74"/>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:31">
+    <row r="8" customHeight="1" spans="1:31">
       <c r="A8" s="44">
         <v>4</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="AD8" s="17"/>
       <c r="AE8" s="74"/>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:31">
+    <row r="9" customHeight="1" spans="1:31">
       <c r="A9" s="44">
         <v>5</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="AD9" s="17"/>
       <c r="AE9" s="74"/>
     </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:31">
+    <row r="10" customHeight="1" spans="1:31">
       <c r="A10" s="44">
         <v>6</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="AD10" s="17"/>
       <c r="AE10" s="74"/>
     </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:31">
+    <row r="11" customHeight="1" spans="1:31">
       <c r="A11" s="44">
         <v>7</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="AD11" s="17"/>
       <c r="AE11" s="74"/>
     </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:31">
+    <row r="12" customHeight="1" spans="1:31">
       <c r="A12" s="44">
         <v>8</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="74"/>
     </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:31">
+    <row r="13" customHeight="1" spans="1:31">
       <c r="A13" s="44">
         <v>9</v>
       </c>
@@ -5930,7 +5930,7 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="74"/>
     </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:31">
+    <row r="14" customHeight="1" spans="1:31">
       <c r="A14" s="44">
         <v>10</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="AD14" s="17"/>
       <c r="AE14" s="74"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:31">
+    <row r="15" customHeight="1" spans="1:31">
       <c r="A15" s="44">
         <v>11</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="AD15" s="17"/>
       <c r="AE15" s="74"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" spans="1:31">
+    <row r="16" customHeight="1" spans="1:31">
       <c r="A16" s="44">
         <v>12</v>
       </c>
@@ -6053,7 +6053,7 @@
       <c r="AD16" s="17"/>
       <c r="AE16" s="74"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" spans="1:31">
+    <row r="17" customHeight="1" spans="1:31">
       <c r="A17" s="44">
         <v>13</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="AD18" s="17"/>
       <c r="AE18" s="74"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" spans="1:31">
+    <row r="19" customHeight="1" spans="1:31">
       <c r="A19" s="44">
         <v>15</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="AD19" s="17"/>
       <c r="AE19" s="74"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" spans="1:31">
+    <row r="20" customHeight="1" spans="1:31">
       <c r="A20" s="44">
         <v>16</v>
       </c>
@@ -6221,7 +6221,7 @@
       <c r="AD20" s="17"/>
       <c r="AE20" s="74"/>
     </row>
-    <row r="21" ht="14.4" customHeight="1" spans="1:31">
+    <row r="21" customHeight="1" spans="1:31">
       <c r="A21" s="44">
         <v>17</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="AD21" s="17"/>
       <c r="AE21" s="74"/>
     </row>
-    <row r="22" ht="14.4" customHeight="1" spans="1:31">
+    <row r="22" customHeight="1" spans="1:31">
       <c r="A22" s="44">
         <v>18</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="AD22" s="17"/>
       <c r="AE22" s="74"/>
     </row>
-    <row r="23" ht="14.4" customHeight="1" spans="1:31">
+    <row r="23" customHeight="1" spans="1:31">
       <c r="A23" s="44">
         <v>19</v>
       </c>
@@ -6348,7 +6348,7 @@
       <c r="AD23" s="17"/>
       <c r="AE23" s="74"/>
     </row>
-    <row r="24" ht="14.4" customHeight="1" spans="1:31">
+    <row r="24" customHeight="1" spans="1:31">
       <c r="A24" s="44">
         <v>20</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="AD24" s="17"/>
       <c r="AE24" s="74"/>
     </row>
-    <row r="25" ht="14.4" customHeight="1" spans="1:31">
+    <row r="25" customHeight="1" spans="1:31">
       <c r="A25" s="44">
         <v>21</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="AD25" s="17"/>
       <c r="AE25" s="74"/>
     </row>
-    <row r="26" ht="14.4" customHeight="1" spans="1:31">
+    <row r="26" customHeight="1" spans="1:31">
       <c r="A26" s="44">
         <v>22</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="AD26" s="17"/>
       <c r="AE26" s="74"/>
     </row>
-    <row r="27" ht="14.4" customHeight="1" spans="1:31">
+    <row r="27" customHeight="1" spans="1:31">
       <c r="A27" s="44">
         <v>23</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="AD27" s="17"/>
       <c r="AE27" s="74"/>
     </row>
-    <row r="28" ht="14.4" customHeight="1" spans="1:31">
+    <row r="28" customHeight="1" spans="1:31">
       <c r="A28" s="44">
         <v>24</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="74"/>
     </row>
-    <row r="29" ht="14.4" customHeight="1" spans="1:31">
+    <row r="29" customHeight="1" spans="1:31">
       <c r="A29" s="44">
         <v>25</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="AD29" s="17"/>
       <c r="AE29" s="74"/>
     </row>
-    <row r="30" ht="14.4" customHeight="1" spans="1:31">
+    <row r="30" customHeight="1" spans="1:31">
       <c r="A30" s="44">
         <v>26</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="AD30" s="17"/>
       <c r="AE30" s="74"/>
     </row>
-    <row r="31" ht="14.4" customHeight="1" spans="1:31">
+    <row r="31" customHeight="1" spans="1:31">
       <c r="A31" s="44">
         <v>27</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="AD31" s="17"/>
       <c r="AE31" s="74"/>
     </row>
-    <row r="32" ht="14.4" customHeight="1" spans="1:31">
+    <row r="32" customHeight="1" spans="1:31">
       <c r="A32" s="44">
         <v>28</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="AD32" s="17"/>
       <c r="AE32" s="74"/>
     </row>
-    <row r="33" ht="14.4" customHeight="1" spans="1:31">
+    <row r="33" customHeight="1" spans="1:31">
       <c r="A33" s="44">
         <v>29</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="AD33" s="17"/>
       <c r="AE33" s="74"/>
     </row>
-    <row r="34" ht="14.4" customHeight="1" spans="1:31">
+    <row r="34" customHeight="1" spans="1:31">
       <c r="A34" s="44">
         <v>30</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="AD34" s="17"/>
       <c r="AE34" s="74"/>
     </row>
-    <row r="35" ht="14.4" customHeight="1" spans="1:31">
+    <row r="35" customHeight="1" spans="1:31">
       <c r="A35" s="44">
         <v>31</v>
       </c>
@@ -6852,7 +6852,7 @@
       <c r="AD35" s="17"/>
       <c r="AE35" s="74"/>
     </row>
-    <row r="36" ht="14.4" customHeight="1" spans="1:31">
+    <row r="36" customHeight="1" spans="1:31">
       <c r="A36" s="44">
         <v>32</v>
       </c>
@@ -6893,7 +6893,7 @@
       <c r="AD36" s="17"/>
       <c r="AE36" s="74"/>
     </row>
-    <row r="37" ht="14.4" customHeight="1" spans="1:31">
+    <row r="37" customHeight="1" spans="1:31">
       <c r="A37" s="44">
         <v>33</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="AD38" s="17"/>
       <c r="AE38" s="74"/>
     </row>
-    <row r="39" ht="14.4" customHeight="1" spans="1:31">
+    <row r="39" customHeight="1" spans="1:31">
       <c r="A39" s="44">
         <v>35</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="AD39" s="17"/>
       <c r="AE39" s="74"/>
     </row>
-    <row r="40" ht="14.4" customHeight="1" spans="1:31">
+    <row r="40" customHeight="1" spans="1:31">
       <c r="A40" s="44">
         <v>36</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="AD40" s="17"/>
       <c r="AE40" s="74"/>
     </row>
-    <row r="41" ht="14.4" customHeight="1" spans="1:31">
+    <row r="41" customHeight="1" spans="1:31">
       <c r="A41" s="44">
         <v>37</v>
       </c>
@@ -7106,7 +7106,7 @@
       <c r="AD41" s="17"/>
       <c r="AE41" s="74"/>
     </row>
-    <row r="42" ht="14.4" customHeight="1" spans="1:31">
+    <row r="42" customHeight="1" spans="1:31">
       <c r="A42" s="44">
         <v>38</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="74"/>
     </row>
-    <row r="43" ht="14.4" customHeight="1" spans="1:31">
+    <row r="43" customHeight="1" spans="1:31">
       <c r="A43" s="44">
         <v>39</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="AD43" s="17"/>
       <c r="AE43" s="74"/>
     </row>
-    <row r="44" ht="14.4" customHeight="1" spans="1:31">
+    <row r="44" customHeight="1" spans="1:31">
       <c r="A44" s="44">
         <v>40</v>
       </c>
@@ -7273,46 +7273,46 @@
   <sheetPr/>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="20.1090909090909" customWidth="1"/>
-    <col min="4" max="4" width="17.6636363636364" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="32.8909090909091" customWidth="1"/>
-    <col min="7" max="7" width="13.2181818181818" customWidth="1"/>
-    <col min="8" max="8" width="12.5545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="19.3363636363636" customWidth="1"/>
-    <col min="11" max="11" width="13.2181818181818" customWidth="1"/>
-    <col min="12" max="12" width="12.5545454545455" customWidth="1"/>
-    <col min="13" max="13" width="16.4454545454545" customWidth="1"/>
-    <col min="14" max="14" width="19.3363636363636" customWidth="1"/>
-    <col min="15" max="15" width="13.2181818181818" customWidth="1"/>
-    <col min="16" max="16" width="12.5545454545455" customWidth="1"/>
-    <col min="17" max="17" width="16.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="19.3363636363636" customWidth="1"/>
-    <col min="19" max="19" width="13.2181818181818" customWidth="1"/>
-    <col min="20" max="20" width="12.5545454545455" customWidth="1"/>
-    <col min="21" max="21" width="16.4454545454545" customWidth="1"/>
-    <col min="22" max="22" width="19.3363636363636" customWidth="1"/>
-    <col min="23" max="23" width="13.2181818181818" customWidth="1"/>
-    <col min="24" max="24" width="12.5545454545455" customWidth="1"/>
-    <col min="25" max="25" width="16.4454545454545" customWidth="1"/>
-    <col min="26" max="26" width="19.3363636363636" customWidth="1"/>
-    <col min="27" max="27" width="13.2181818181818" customWidth="1"/>
-    <col min="28" max="28" width="12.5545454545455" customWidth="1"/>
-    <col min="29" max="29" width="16.4454545454545" customWidth="1"/>
-    <col min="30" max="30" width="19.3363636363636" customWidth="1"/>
-    <col min="31" max="32" width="58.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="20.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="17.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="32.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="13.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="12.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="19.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="12.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="19.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="12.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="19.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="13.2222222222222" customWidth="1"/>
+    <col min="20" max="20" width="12.5555555555556" customWidth="1"/>
+    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="19.3333333333333" customWidth="1"/>
+    <col min="23" max="23" width="13.2222222222222" customWidth="1"/>
+    <col min="24" max="24" width="12.5555555555556" customWidth="1"/>
+    <col min="25" max="25" width="16.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="19.3333333333333" customWidth="1"/>
+    <col min="27" max="27" width="13.2222222222222" customWidth="1"/>
+    <col min="28" max="28" width="12.5555555555556" customWidth="1"/>
+    <col min="29" max="29" width="16.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="19.3333333333333" customWidth="1"/>
+    <col min="31" max="32" width="58.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" spans="1:31">
+    <row r="1" ht="17.4" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" ht="21" spans="1:31">
+    <row r="2" ht="20.4" spans="1:31">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.5" spans="1:31">
+    <row r="3" ht="17.4" spans="1:31">
       <c r="A3" s="15"/>
       <c r="B3" s="54" t="s">
         <v>5</v>
@@ -7435,7 +7435,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="62"/>
     </row>
-    <row r="4" ht="18.25" spans="1:31">
+    <row r="4" ht="18.15" spans="1:31">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -9122,20 +9122,20 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="63"/>
     </row>
-    <row r="45" spans="3:7">
+    <row r="45" spans="1:5">
+      <c r="A45" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="44">
+        <v>12018246114</v>
+      </c>
       <c r="C45" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="44">
-        <v>12018246114</v>
+        <v>311</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="44" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9181,47 +9181,47 @@
   <sheetPr/>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F38" sqref="F38:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.2181818181818" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="40.2222222222222" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="37.6636363636364" customWidth="1"/>
-    <col min="7" max="7" width="14.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="37.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="20.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.4454545454545" customWidth="1"/>
-    <col min="14" max="14" width="20.1090909090909" customWidth="1"/>
-    <col min="15" max="15" width="14.1090909090909" customWidth="1"/>
+    <col min="13" max="13" width="17.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="20.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="17.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="20.1090909090909" customWidth="1"/>
-    <col min="19" max="19" width="14.1090909090909" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="20.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="17.4454545454545" customWidth="1"/>
-    <col min="22" max="22" width="20.1090909090909" customWidth="1"/>
-    <col min="23" max="23" width="14.1090909090909" customWidth="1"/>
+    <col min="21" max="21" width="17.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="20.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="14.1111111111111" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="17.4454545454545" customWidth="1"/>
-    <col min="26" max="26" width="20.1090909090909" customWidth="1"/>
-    <col min="27" max="27" width="14.1090909090909" customWidth="1"/>
+    <col min="25" max="25" width="17.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="20.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="17.4454545454545" customWidth="1"/>
-    <col min="30" max="30" width="20.1090909090909" customWidth="1"/>
-    <col min="31" max="31" width="60.3363636363636" style="37" customWidth="1"/>
-    <col min="32" max="32" width="60.3363636363636" customWidth="1"/>
+    <col min="29" max="29" width="17.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="20.1111111111111" customWidth="1"/>
+    <col min="31" max="31" width="60.3333333333333" style="37" customWidth="1"/>
+    <col min="32" max="32" width="60.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" spans="1:31">
+    <row r="1" ht="17.4" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="17.5" spans="1:31">
+    <row r="3" ht="17.4" spans="1:31">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -9344,7 +9344,7 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="35"/>
     </row>
-    <row r="4" ht="17.5" spans="1:31">
+    <row r="4" ht="17.4" spans="1:31">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -11073,43 +11073,43 @@
   <sheetPr/>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F26" sqref="F26:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.6636363636364" defaultRowHeight="22" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="55.6666666666667" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.89090909090909" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="20.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="17.4454545454545" customWidth="1"/>
-    <col min="5" max="5" width="16.5545454545455" customWidth="1"/>
-    <col min="6" max="6" width="20.1818181818182" customWidth="1"/>
-    <col min="7" max="7" width="14.1090909090909" customWidth="1"/>
+    <col min="1" max="1" width="9.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="20.1851851851852" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="20.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="14.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="17.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.4454545454545" customWidth="1"/>
-    <col min="14" max="14" width="20.1090909090909" customWidth="1"/>
-    <col min="15" max="15" width="14.1090909090909" customWidth="1"/>
+    <col min="13" max="13" width="17.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="20.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="17.4454545454545" customWidth="1"/>
-    <col min="18" max="18" width="20.1090909090909" customWidth="1"/>
-    <col min="19" max="19" width="14.1090909090909" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="20.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="17.4454545454545" customWidth="1"/>
-    <col min="22" max="22" width="20.1090909090909" customWidth="1"/>
-    <col min="23" max="23" width="14.1090909090909" customWidth="1"/>
+    <col min="21" max="21" width="17.4444444444444" customWidth="1"/>
+    <col min="22" max="22" width="20.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="14.1111111111111" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="17.4454545454545" customWidth="1"/>
-    <col min="26" max="26" width="20.1090909090909" customWidth="1"/>
-    <col min="27" max="27" width="14.1090909090909" customWidth="1"/>
+    <col min="25" max="25" width="17.4444444444444" customWidth="1"/>
+    <col min="26" max="26" width="20.1111111111111" customWidth="1"/>
+    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="17.4454545454545" customWidth="1"/>
-    <col min="30" max="30" width="20.1090909090909" customWidth="1"/>
-    <col min="31" max="31" width="55.2181818181818" customWidth="1"/>
+    <col min="29" max="29" width="17.4444444444444" customWidth="1"/>
+    <col min="30" max="30" width="20.1111111111111" customWidth="1"/>
+    <col min="31" max="31" width="55.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:31">
